--- a/GenerateZaFoms/Template/ZaGiveup.xlsx
+++ b/GenerateZaFoms/Template/ZaGiveup.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +498,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -548,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -639,6 +646,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,15 +1717,15 @@
       <c r="K30" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
@@ -2396,7 +2406,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="E55:L55"/>
     <mergeCell ref="B32:X32"/>
     <mergeCell ref="B34:X34"/>
@@ -2404,6 +2414,7 @@
     <mergeCell ref="B44:X44"/>
     <mergeCell ref="E48:X48"/>
     <mergeCell ref="A51:X51"/>
+    <mergeCell ref="P30:X30"/>
     <mergeCell ref="E26:X26"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A6:X6"/>

--- a/GenerateZaFoms/Template/ZaGiveup.xlsx
+++ b/GenerateZaFoms/Template/ZaGiveup.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -623,9 +623,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -635,21 +650,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -659,6 +660,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -707,7 +711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,7 +746,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,17 +959,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="4.140625" style="14" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="24" width="4.1796875" style="14" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="J1" s="5" t="s">
+    <row r="1" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -980,7 +984,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
         <v>3</v>
@@ -999,7 +1003,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1022,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
         <v>2</v>
@@ -1037,91 +1041,91 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="9" t="s">
         <v>77</v>
@@ -1149,7 +1153,7 @@
       <c r="W8" s="27"/>
       <c r="X8" s="27"/>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="9" t="s">
         <v>78</v>
@@ -1177,7 +1181,7 @@
       <c r="W9" s="27"/>
       <c r="X9" s="27"/>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="9" t="s">
         <v>76</v>
@@ -1205,35 +1209,35 @@
       <c r="W10" s="27"/>
       <c r="X10" s="27"/>
     </row>
-    <row r="11" spans="1:24" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:24" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1267,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1287,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
     </row>
-    <row r="15" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="7" t="s">
         <v>10</v>
       </c>
@@ -1333,7 +1337,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1367,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
     </row>
-    <row r="17" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="7" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1387,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1425,7 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
     </row>
-    <row r="19" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="7"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -1440,7 +1444,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
@@ -1450,27 +1454,27 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-    </row>
-    <row r="21" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+    </row>
+    <row r="21" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1490,37 +1494,37 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1545,7 +1549,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
@@ -1576,7 +1580,7 @@
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
     </row>
-    <row r="25" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="7"/>
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
@@ -1596,36 +1600,36 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
       <c r="Y26" s="18"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
@@ -1654,7 +1658,7 @@
       <c r="W27" s="21"/>
       <c r="X27" s="22"/>
     </row>
-    <row r="28" spans="1:25" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="20"/>
@@ -1681,7 +1685,7 @@
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
     </row>
-    <row r="29" spans="1:25" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -1700,7 +1704,7 @@
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
     </row>
-    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -1717,17 +1721,17 @@
       <c r="K30" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
@@ -1735,32 +1739,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-    </row>
-    <row r="33" spans="1:24" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+    </row>
+    <row r="33" spans="1:24" ht="14" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>43</v>
       </c>
@@ -1768,60 +1772,60 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-    </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+    <row r="34" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+    </row>
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>46</v>
       </c>
@@ -1851,7 +1855,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
     </row>
-    <row r="37" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1875,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>47</v>
       </c>
@@ -1901,7 +1905,7 @@
       <c r="W38" s="15"/>
       <c r="X38" s="15"/>
     </row>
-    <row r="39" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1925,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
@@ -1951,7 +1955,7 @@
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
     </row>
-    <row r="41" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41" s="7" t="s">
         <v>10</v>
       </c>
@@ -1971,7 +1975,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>45</v>
       </c>
@@ -2004,7 +2008,7 @@
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
     </row>
-    <row r="43" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="7" t="s">
         <v>21</v>
       </c>
@@ -2025,37 +2029,37 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -2080,7 +2084,7 @@
       <c r="W45" s="15"/>
       <c r="X45" s="15"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>53</v>
       </c>
@@ -2111,7 +2115,7 @@
       <c r="W46" s="12"/>
       <c r="X46" s="11"/>
     </row>
-    <row r="47" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="G47" s="7"/>
       <c r="J47" s="3"/>
@@ -2132,33 +2136,33 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>56</v>
       </c>
@@ -2190,7 +2194,7 @@
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
     </row>
-    <row r="50" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>60</v>
       </c>
@@ -2217,35 +2221,35 @@
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
     </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+    <row r="51" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -2272,7 +2276,7 @@
       <c r="W52" s="24"/>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>67</v>
       </c>
@@ -2299,7 +2303,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="10" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>65</v>
       </c>
@@ -2327,21 +2331,21 @@
       <c r="W54" s="24"/>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
       <c r="M55" s="6"/>
       <c r="N55" s="4" t="s">
         <v>64</v>
@@ -2357,7 +2361,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="8.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -2385,35 +2389,28 @@
       <c r="W56" s="24"/>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E55:L55"/>
-    <mergeCell ref="B32:X32"/>
-    <mergeCell ref="B34:X34"/>
-    <mergeCell ref="A35:X35"/>
-    <mergeCell ref="B44:X44"/>
-    <mergeCell ref="E48:X48"/>
-    <mergeCell ref="A51:X51"/>
     <mergeCell ref="P30:X30"/>
     <mergeCell ref="E26:X26"/>
     <mergeCell ref="A5:X5"/>
@@ -2422,6 +2419,13 @@
     <mergeCell ref="A11:X11"/>
     <mergeCell ref="B22:X22"/>
     <mergeCell ref="F20:X20"/>
+    <mergeCell ref="E55:L55"/>
+    <mergeCell ref="B32:X32"/>
+    <mergeCell ref="B34:X34"/>
+    <mergeCell ref="A35:X35"/>
+    <mergeCell ref="B44:X44"/>
+    <mergeCell ref="E48:X48"/>
+    <mergeCell ref="A51:X51"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2434,7 +2438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2446,7 +2450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
